--- a/graphCaseUnitTest/check_layer_calc.xlsx
+++ b/graphCaseUnitTest/check_layer_calc.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonpoppe/workspace/GraphCase/graphCaseUnitTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAD8DB7-5A5C-F346-9FA2-309307A9A68E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E645AE-2928-7041-B307-948DCE38DC71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16160" xr2:uid="{00042199-49BE-E54D-97D2-5F9F03390C30}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16160" activeTab="2" xr2:uid="{00042199-49BE-E54D-97D2-5F9F03390C30}"/>
   </bookViews>
   <sheets>
     <sheet name="layer1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="dims" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="40">
   <si>
     <t>i = [10  7  8]</t>
   </si>
@@ -131,6 +132,21 @@
   </si>
   <si>
     <t>[14.69048</t>
+  </si>
+  <si>
+    <t>dim</t>
+  </si>
+  <si>
+    <t>node id of batch</t>
+  </si>
+  <si>
+    <t>hub 1 node ids</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>hub next node ids</t>
   </si>
 </sst>
 </file>
@@ -489,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0484F16-52EA-1041-B684-0EF1910E00CA}">
   <dimension ref="A1:AH170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J152" workbookViewId="0">
-      <selection activeCell="U165" sqref="U165"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14993,4 +15009,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A984BD9F-CB1F-FC40-A35B-ECB5851CD447}">
+  <dimension ref="C5:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/graphCaseUnitTest/check_layer_calc.xlsx
+++ b/graphCaseUnitTest/check_layer_calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonpoppe/workspace/GraphCase/graphCaseUnitTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E645AE-2928-7041-B307-948DCE38DC71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15652F81-675E-3541-BB3D-4D244FE5DEC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16160" activeTab="2" xr2:uid="{00042199-49BE-E54D-97D2-5F9F03390C30}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="layer1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="dims" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="68">
   <si>
     <t>i = [10  7  8]</t>
   </si>
@@ -147,6 +148,90 @@
   </si>
   <si>
     <t>hub next node ids</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>[10</t>
+  </si>
+  <si>
+    <t>8]</t>
+  </si>
+  <si>
+    <t>[0.3</t>
+  </si>
+  <si>
+    <t>]],</t>
+  </si>
+  <si>
+    <t>shape=(3,</t>
+  </si>
+  <si>
+    <t>48),</t>
+  </si>
+  <si>
+    <t>dtype=float64)</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">layer id 2 </t>
+  </si>
+  <si>
+    <t>5,48,2</t>
+  </si>
+  <si>
+    <t>5,12,8</t>
+  </si>
+  <si>
+    <t>layer id 3</t>
+  </si>
+  <si>
+    <t>5,12,6</t>
+  </si>
+  <si>
+    <t>5,6, 12</t>
+  </si>
+  <si>
+    <t>layer id 4</t>
+  </si>
+  <si>
+    <t>5,6, 6,</t>
+  </si>
+  <si>
+    <t>5,2,18</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>5, 240, 2</t>
+  </si>
+  <si>
+    <t>5, 72</t>
+  </si>
+  <si>
+    <t>5,72</t>
+  </si>
+  <si>
+    <t>5,36</t>
+  </si>
+  <si>
+    <t>5,36,6</t>
+  </si>
+  <si>
+    <t>layer id 5</t>
+  </si>
+  <si>
+    <t>layer id 6</t>
   </si>
 </sst>
 </file>
@@ -503,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0484F16-52EA-1041-B684-0EF1910E00CA}">
-  <dimension ref="A1:AH170"/>
+  <dimension ref="A1:AY170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E159"/>
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,12 +601,12 @@
     <col min="25" max="25" width="12.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -541,7 +626,7 @@
         <v>0.41884598000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -558,7 +643,7 @@
         <v>0.19273747999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -566,7 +651,7 @@
         <v>0.44841209999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -574,7 +659,7 @@
         <v>0.47008327</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -588,7 +673,7 @@
         <v>-0.18179450999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="J8">
         <v>0.40933362000000001</v>
       </c>
@@ -596,7 +681,7 @@
         <v>0.33428564999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="J9">
         <v>0.39425650000000001</v>
       </c>
@@ -604,7 +689,7 @@
         <v>0.41864600000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="G10" s="1"/>
       <c r="J10">
         <v>0.42931659999999999</v>
@@ -613,7 +698,7 @@
         <v>0.19293747999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>21</v>
       </c>
@@ -648,7 +733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -740,8 +825,50 @@
       <c r="AF14">
         <v>16.673176000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AS14">
+        <v>1</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>1</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="AX14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -833,8 +960,50 @@
       <c r="AF15">
         <v>24.617563000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="AX15">
+        <v>1</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -926,8 +1095,50 @@
       <c r="AF16">
         <v>14.1444435</v>
       </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>1</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+      <c r="AV16">
+        <v>1</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <v>1</v>
+      </c>
+      <c r="AY16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1019,8 +1230,29 @@
       <c r="AF17">
         <v>21.497907999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1112,8 +1344,50 @@
       <c r="AF18">
         <v>16.673176000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AL18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM18">
+        <v>0.09</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0.3</v>
+      </c>
+      <c r="AQ18">
+        <v>0.09</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1205,8 +1479,50 @@
       <c r="AF19">
         <v>24.617563000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0.3</v>
+      </c>
+      <c r="AW19">
+        <v>0.09</v>
+      </c>
+      <c r="AX19">
+        <v>0.09</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1298,8 +1614,50 @@
       <c r="AF20">
         <v>14.1444435</v>
       </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AL20">
+        <v>0.3</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1394,8 +1752,29 @@
       <c r="AG21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1469,8 +1848,50 @@
         <f t="shared" si="12"/>
         <v>-7.6252327282801957E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AL22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM22">
+        <v>0.3</v>
+      </c>
+      <c r="AN22">
+        <v>0.3</v>
+      </c>
+      <c r="AO22">
+        <v>0.3</v>
+      </c>
+      <c r="AP22">
+        <v>0.3</v>
+      </c>
+      <c r="AQ22">
+        <v>0.3</v>
+      </c>
+      <c r="AR22">
+        <v>0.3</v>
+      </c>
+      <c r="AS22">
+        <v>0.3</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1544,8 +1965,50 @@
         <f t="shared" si="12"/>
         <v>-5.4141331231321033E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0.3</v>
+      </c>
+      <c r="AW23">
+        <v>0.09</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1643,8 +2106,50 @@
       <c r="AH24">
         <v>16.673176000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AL24">
+        <v>0.3</v>
+      </c>
+      <c r="AM24">
+        <v>0.09</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1742,8 +2247,38 @@
       <c r="AH25">
         <v>21.497907999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1842,7 +2377,7 @@
         <v>24.617563000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1941,7 +2476,7 @@
         <v>14.1444435</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2040,7 +2575,7 @@
         <v>16.673176000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2139,7 +2674,7 @@
         <v>21.497907999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2214,7 +2749,7 @@
         <v>-8.4760340839800108E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2289,7 +2824,7 @@
         <v>-5.4141331231321033E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -3262,7 +3797,7 @@
         <v>21.497907999999999</v>
       </c>
       <c r="X44" s="5">
-        <f>V44-W44</f>
+        <f t="shared" ref="X44:X49" si="13">V44-W44</f>
         <v>-7.6252327282801957E-3</v>
       </c>
     </row>
@@ -3337,7 +3872,7 @@
         <v>24.617563000000001</v>
       </c>
       <c r="X45" s="5">
-        <f>V45-W45</f>
+        <f t="shared" si="13"/>
         <v>-8.4760340839800108E-3</v>
       </c>
     </row>
@@ -3412,7 +3947,7 @@
         <v>21.497907999999999</v>
       </c>
       <c r="X46" s="5">
-        <f>V46-W46</f>
+        <f t="shared" si="13"/>
         <v>-7.6252327282801957E-3</v>
       </c>
     </row>
@@ -3487,7 +4022,7 @@
         <v>14.1444435</v>
       </c>
       <c r="X47" s="5">
-        <f>V47-W47</f>
+        <f t="shared" si="13"/>
         <v>-5.4141331231321033E-3</v>
       </c>
     </row>
@@ -3562,7 +4097,7 @@
         <v>16.673176000000002</v>
       </c>
       <c r="X48" s="5">
-        <f>V48-W48</f>
+        <f t="shared" si="13"/>
         <v>-6.1364875320002454E-3</v>
       </c>
     </row>
@@ -3637,7 +4172,7 @@
         <v>24.617563000000001</v>
       </c>
       <c r="X49" s="5">
-        <f>V49-W49</f>
+        <f t="shared" si="13"/>
         <v>-8.4760340839800108E-3</v>
       </c>
     </row>
@@ -5920,61 +6455,61 @@
         <v>0</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" ref="G79:G142" si="13">G$12+SUMPRODUCT(B79:E79,$G$2:$J$2)</f>
+        <f t="shared" ref="G79:G142" si="14">G$12+SUMPRODUCT(B79:E79,$G$2:$J$2)</f>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" ref="H79:H142" si="14">H$12+SUMPRODUCT(B79:E79,$G$3:$J$3)</f>
+        <f t="shared" ref="H79:H142" si="15">H$12+SUMPRODUCT(B79:E79,$G$3:$J$3)</f>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J79" s="2">
-        <f t="shared" ref="J79:J142" si="15">J$12+SUMPRODUCT(G79:H79,$J$7:$K$7)</f>
+        <f t="shared" ref="J79:J142" si="16">J$12+SUMPRODUCT(G79:H79,$J$7:$K$7)</f>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K79" s="2">
-        <f t="shared" ref="K79:K142" si="16">K$12+SUMPRODUCT(G79:H79,$J$8:$K$8)</f>
+        <f t="shared" ref="K79:K142" si="17">K$12+SUMPRODUCT(G79:H79,$J$8:$K$8)</f>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L79" s="2">
-        <f t="shared" ref="L79:L142" si="17">L$12+SUMPRODUCT(G79:H79,$J$9:$K$9)</f>
+        <f t="shared" ref="L79:L142" si="18">L$12+SUMPRODUCT(G79:H79,$J$9:$K$9)</f>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M79" s="2">
-        <f t="shared" ref="M79:M142" si="18">M$12+SUMPRODUCT(G79:H79,$J$10:$K$10)</f>
+        <f t="shared" ref="M79:M142" si="19">M$12+SUMPRODUCT(G79:H79,$J$10:$K$10)</f>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O79">
-        <f t="shared" ref="O79:O142" si="19">(B79-J79)^2</f>
+        <f t="shared" ref="O79:O142" si="20">(B79-J79)^2</f>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P79">
-        <f t="shared" ref="P79:P142" si="20">(C79-K79)^2</f>
+        <f t="shared" ref="P79:P142" si="21">(C79-K79)^2</f>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q79">
-        <f t="shared" ref="Q79:Q142" si="21">(D79-L79)^2</f>
+        <f t="shared" ref="Q79:Q142" si="22">(D79-L79)^2</f>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R79">
-        <f t="shared" ref="R79:R142" si="22">(E79-M79)^2</f>
+        <f t="shared" ref="R79:R142" si="23">(E79-M79)^2</f>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S79">
         <v>0</v>
       </c>
       <c r="U79">
-        <f t="shared" ref="U79:U142" si="23">AVERAGE(O79:R79)*(1+S79)</f>
+        <f t="shared" ref="U79:U142" si="24">AVERAGE(O79:R79)*(1+S79)</f>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V79">
-        <f t="shared" ref="V79:V142" si="24">AVERAGE(O79:R79)</f>
+        <f t="shared" ref="V79:V142" si="25">AVERAGE(O79:R79)</f>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W79">
         <v>0</v>
       </c>
       <c r="X79" s="5">
-        <f t="shared" ref="X79:X142" si="25">V79-W79</f>
+        <f t="shared" ref="X79:X142" si="26">V79-W79</f>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -5995,61 +6530,61 @@
         <v>0</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K80" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L80" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M80" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S80">
         <v>0</v>
       </c>
       <c r="U80">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V80">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W80">
         <v>0</v>
       </c>
       <c r="X80" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -6070,61 +6605,61 @@
         <v>0</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K81" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L81" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M81" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R81">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S81">
         <v>0</v>
       </c>
       <c r="U81">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V81">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W81">
         <v>0</v>
       </c>
       <c r="X81" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -6145,61 +6680,61 @@
         <v>0</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K82" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S82">
         <v>0</v>
       </c>
       <c r="U82">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V82">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W82">
         <v>0</v>
       </c>
       <c r="X82" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -6220,61 +6755,61 @@
         <v>0</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J83" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M83" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P83">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R83">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S83">
         <v>0</v>
       </c>
       <c r="U83">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V83">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W83">
         <v>0</v>
       </c>
       <c r="X83" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -6295,61 +6830,61 @@
         <v>0</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J84" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K84" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L84" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M84" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S84">
         <v>0</v>
       </c>
       <c r="U84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V84">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W84">
         <v>0</v>
       </c>
       <c r="X84" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -6370,61 +6905,61 @@
         <v>0</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J85" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K85" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L85" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M85" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R85">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S85">
         <v>0</v>
       </c>
       <c r="U85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V85">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W85">
         <v>0</v>
       </c>
       <c r="X85" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -6445,61 +6980,61 @@
         <v>0</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J86" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K86" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L86" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M86" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S86">
         <v>0</v>
       </c>
       <c r="U86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W86">
         <v>0</v>
       </c>
       <c r="X86" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -6520,61 +7055,61 @@
         <v>6</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.701610164976</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.5535469510319999</v>
       </c>
       <c r="J87" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.343459383947269</v>
       </c>
       <c r="K87" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6250883209896736</v>
       </c>
       <c r="L87" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.715413584869603</v>
       </c>
       <c r="M87" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.4596835243467328</v>
       </c>
       <c r="O87">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0888074859476142</v>
       </c>
       <c r="P87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.8908678905221996</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.4772301822855798</v>
       </c>
       <c r="R87">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20.614473699088503</v>
       </c>
       <c r="S87">
         <v>0.09</v>
       </c>
       <c r="U87">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.8319508477624629</v>
       </c>
       <c r="V87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.2678448144609744</v>
       </c>
       <c r="W87">
         <v>6.2700662999999999</v>
       </c>
       <c r="X87" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.2214855390254584E-3</v>
       </c>
     </row>
@@ -6595,61 +7130,61 @@
         <v>5</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.2827641849760001</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.360809471032</v>
       </c>
       <c r="J88" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.126412195851664</v>
       </c>
       <c r="K88" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.389211205992664</v>
       </c>
       <c r="L88" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4695920597036531</v>
       </c>
       <c r="M88" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2426797085967145</v>
       </c>
       <c r="O88">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.68295711745236898</v>
       </c>
       <c r="P88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.2978021718592601</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.94010876224037243</v>
       </c>
       <c r="R88">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>14.117455772190871</v>
       </c>
       <c r="S88">
         <v>0.09</v>
       </c>
       <c r="U88">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.6429432419699328</v>
       </c>
       <c r="V88">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.2595809559357178</v>
       </c>
       <c r="W88">
         <v>4.2611980000000003</v>
       </c>
       <c r="X88" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-1.6170440642824246E-3</v>
       </c>
     </row>
@@ -6670,61 +7205,61 @@
         <v>7</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.120456144976</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.746284431032</v>
       </c>
       <c r="J89" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.5605065720428744</v>
       </c>
       <c r="K89" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.8609654359866832</v>
       </c>
       <c r="L89" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.9612351100355532</v>
       </c>
       <c r="M89" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.6766873400967512</v>
       </c>
       <c r="O89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.588876818163278</v>
       </c>
       <c r="P89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.5952096359437644</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.1352080468006154</v>
       </c>
       <c r="R89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>28.337657675086202</v>
       </c>
       <c r="S89">
         <v>0.09</v>
       </c>
       <c r="U89">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.4440194679583271</v>
       </c>
       <c r="V89">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.6642380439984645</v>
       </c>
       <c r="W89">
         <v>8.6671530000000008</v>
       </c>
       <c r="X89" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.9149560015362397E-3</v>
       </c>
     </row>
@@ -6745,61 +7280,61 @@
         <v>0</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J90" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K90" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L90" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M90" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S90">
         <v>0</v>
       </c>
       <c r="U90">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V90">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W90">
         <v>0</v>
       </c>
       <c r="X90" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -6820,61 +7355,61 @@
         <v>6</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.701610164976</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.5535469510319999</v>
       </c>
       <c r="J91" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.343459383947269</v>
       </c>
       <c r="K91" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6250883209896736</v>
       </c>
       <c r="L91" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.715413584869603</v>
       </c>
       <c r="M91" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.4596835243467328</v>
       </c>
       <c r="O91">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0888074859476142</v>
       </c>
       <c r="P91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.8908678905221996</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.4772301822855798</v>
       </c>
       <c r="R91">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20.614473699088503</v>
       </c>
       <c r="S91">
         <v>0.09</v>
       </c>
       <c r="U91">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.8319508477624629</v>
       </c>
       <c r="V91">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.2678448144609744</v>
       </c>
       <c r="W91">
         <v>6.2700662999999999</v>
       </c>
       <c r="X91" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.2214855390254584E-3</v>
       </c>
     </row>
@@ -6895,61 +7430,61 @@
         <v>0</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J92" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K92" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L92" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M92" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O92">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R92">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S92">
         <v>0</v>
       </c>
       <c r="U92">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V92">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W92">
         <v>0</v>
       </c>
       <c r="X92" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -6970,61 +7505,61 @@
         <v>0</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J93" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K93" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L93" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M93" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O93">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R93">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S93">
         <v>0</v>
       </c>
       <c r="U93">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V93">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W93">
         <v>0</v>
       </c>
       <c r="X93" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -7045,61 +7580,61 @@
         <v>0</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J94" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K94" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L94" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M94" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S94">
         <v>0</v>
       </c>
       <c r="U94">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V94">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W94">
         <v>0</v>
       </c>
       <c r="X94" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -7120,61 +7655,61 @@
         <v>0</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J95" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K95" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L95" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M95" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S95">
         <v>0</v>
       </c>
       <c r="U95">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V95">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W95">
         <v>0</v>
       </c>
       <c r="X95" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -7195,61 +7730,61 @@
         <v>0</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J96" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K96" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L96" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M96" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S96">
         <v>0</v>
       </c>
       <c r="U96">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V96">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W96">
         <v>0</v>
       </c>
       <c r="X96" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -7270,61 +7805,61 @@
         <v>0</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J97" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K97" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L97" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M97" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O97">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="U97">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V97">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W97">
         <v>0</v>
       </c>
       <c r="X97" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -7345,61 +7880,61 @@
         <v>0</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J98" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K98" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L98" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M98" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O98">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S98">
         <v>0</v>
       </c>
       <c r="U98">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V98">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W98">
         <v>0</v>
       </c>
       <c r="X98" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -7420,61 +7955,61 @@
         <v>0</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J99" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K99" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L99" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M99" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P99">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R99">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S99">
         <v>0</v>
       </c>
       <c r="U99">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V99">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W99">
         <v>0</v>
       </c>
       <c r="X99" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -7495,61 +8030,61 @@
         <v>0</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J100" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K100" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L100" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M100" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O100">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P100">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R100">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S100">
         <v>0</v>
       </c>
       <c r="U100">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V100">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W100">
         <v>0</v>
       </c>
       <c r="X100" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -7570,61 +8105,61 @@
         <v>0</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J101" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K101" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L101" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M101" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O101">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S101">
         <v>0</v>
       </c>
       <c r="U101">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V101">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W101">
         <v>0</v>
       </c>
       <c r="X101" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -7645,61 +8180,61 @@
         <v>0</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J102" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K102" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L102" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M102" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S102">
         <v>0</v>
       </c>
       <c r="U102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W102">
         <v>0</v>
       </c>
       <c r="X102" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -7720,61 +8255,61 @@
         <v>0</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J103" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K103" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L103" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M103" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O103">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P103">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S103">
         <v>0</v>
       </c>
       <c r="U103">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V103">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W103">
         <v>0</v>
       </c>
       <c r="X103" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -7795,61 +8330,61 @@
         <v>0</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J104" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K104" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L104" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M104" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O104">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P104">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R104">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S104">
         <v>0</v>
       </c>
       <c r="U104">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V104">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W104">
         <v>0</v>
       </c>
       <c r="X104" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -7870,61 +8405,61 @@
         <v>0</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J105" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K105" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L105" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M105" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O105">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P105">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R105">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S105">
         <v>0</v>
       </c>
       <c r="U105">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V105">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W105">
         <v>0</v>
       </c>
       <c r="X105" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -7945,61 +8480,61 @@
         <v>0</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J106" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K106" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L106" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M106" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R106">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S106">
         <v>0</v>
       </c>
       <c r="U106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V106">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W106">
         <v>0</v>
       </c>
       <c r="X106" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -8020,61 +8555,61 @@
         <v>0</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J107" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K107" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L107" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M107" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O107">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P107">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R107">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S107">
         <v>0</v>
       </c>
       <c r="U107">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V107">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W107">
         <v>0</v>
       </c>
       <c r="X107" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -8095,61 +8630,61 @@
         <v>0</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J108" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K108" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L108" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M108" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O108">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P108">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R108">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S108">
         <v>0</v>
       </c>
       <c r="U108">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V108">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W108">
         <v>0</v>
       </c>
       <c r="X108" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -8170,61 +8705,61 @@
         <v>0</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J109" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K109" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L109" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M109" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O109">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P109">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R109">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S109">
         <v>0</v>
       </c>
       <c r="U109">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V109">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W109">
         <v>0</v>
       </c>
       <c r="X109" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -8245,61 +8780,61 @@
         <v>0</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J110" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K110" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L110" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M110" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O110">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P110">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R110">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S110">
         <v>0</v>
       </c>
       <c r="U110">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W110">
         <v>0</v>
       </c>
       <c r="X110" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="Y110" s="5">
@@ -8332,31 +8867,31 @@
         <v>9</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.2461735949760007</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.1791748860319999</v>
       </c>
       <c r="J112" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.1593315169145724</v>
       </c>
       <c r="K112" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.466468502020823</v>
       </c>
       <c r="L112" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.5862843892854079</v>
       </c>
       <c r="M112" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.243497321795175</v>
       </c>
       <c r="O112">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.4571136897918446</v>
       </c>
       <c r="P112">
@@ -8375,18 +8910,18 @@
         <v>0.09</v>
       </c>
       <c r="U112">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16.007351194567072</v>
       </c>
       <c r="V112">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>14.685643297767955</v>
       </c>
       <c r="W112">
         <v>14.690480000000001</v>
       </c>
       <c r="X112" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-4.8367022320459085E-3</v>
       </c>
     </row>
@@ -8407,61 +8942,61 @@
         <v>10</v>
       </c>
       <c r="G113" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.806251589976001</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8854523900319999</v>
       </c>
       <c r="J113" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.3680215660655795</v>
       </c>
       <c r="K113" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.9318256897015327</v>
       </c>
       <c r="L113" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.10277903126071</v>
       </c>
       <c r="M113" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.6202155041458419</v>
       </c>
       <c r="O113">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.8714830052205205</v>
       </c>
       <c r="P113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.9137761850923347</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.4216796543097301</v>
       </c>
       <c r="R113">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>54.461219205249414</v>
       </c>
       <c r="S113">
         <v>0.3</v>
       </c>
       <c r="U113">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>21.667151366208401</v>
       </c>
       <c r="V113">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>16.667039512468001</v>
       </c>
       <c r="W113">
         <v>16.673176000000002</v>
       </c>
       <c r="X113" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-6.1364875320002454E-3</v>
       </c>
     </row>
@@ -8482,61 +9017,61 @@
         <v>11</v>
       </c>
       <c r="G114" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.5053061899760003</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8511833800319999</v>
       </c>
       <c r="J114" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.794983087393514</v>
       </c>
       <c r="K114" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.2065166014144779</v>
       </c>
       <c r="L114" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.3640392672051496</v>
       </c>
       <c r="M114" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.9137194718007069</v>
       </c>
       <c r="O114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.2219642840287515</v>
       </c>
       <c r="P114">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.0344738130249373</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>11.31676019129816</v>
       </c>
       <c r="R114">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>65.387932780735028</v>
       </c>
       <c r="S114">
         <v>0.3</v>
       </c>
       <c r="U114">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>27.937367597453235</v>
       </c>
       <c r="V114">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>21.490282767271719</v>
       </c>
       <c r="W114">
         <v>21.497907999999999</v>
       </c>
       <c r="X114" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-7.6252327282801957E-3</v>
       </c>
       <c r="Z114" t="s">
@@ -8581,61 +9116,61 @@
         <v>12</v>
       </c>
       <c r="G115" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.6439435499760009</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.2709273500319997</v>
       </c>
       <c r="J115" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.8021159422567901</v>
       </c>
       <c r="K115" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.4035799196955518</v>
       </c>
       <c r="L115" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.5944220815926098</v>
       </c>
       <c r="M115" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.0542231356458789</v>
       </c>
       <c r="O115">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.2476218693360783</v>
       </c>
       <c r="P115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.4307763500592277</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.7310259374553301</v>
       </c>
       <c r="R115">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>80.026923706813449</v>
       </c>
       <c r="S115">
         <v>0.3</v>
       </c>
       <c r="U115">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>31.991813055690827</v>
       </c>
       <c r="V115">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>24.609086965916021</v>
       </c>
       <c r="W115">
         <v>24.617563000000001</v>
       </c>
       <c r="X115" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-8.4760340839800108E-3</v>
       </c>
       <c r="Z115">
@@ -8680,61 +9215,61 @@
         <v>9</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.2461735949760007</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.1791748860319999</v>
       </c>
       <c r="J116" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.1593315169145724</v>
       </c>
       <c r="K116" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.466468502020823</v>
       </c>
       <c r="L116" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.5862843892854079</v>
       </c>
       <c r="M116" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.243497321795175</v>
       </c>
       <c r="O116">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.4571136897918446</v>
       </c>
       <c r="P116">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.9462641184296081</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.6888669422613951</v>
       </c>
       <c r="R116">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>45.650328440588972</v>
       </c>
       <c r="S116">
         <v>0.09</v>
       </c>
       <c r="U116">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16.007351194567072</v>
       </c>
       <c r="V116">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>14.685643297767955</v>
       </c>
       <c r="W116">
         <v>14.690480000000001</v>
       </c>
       <c r="X116" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-4.8367022320459085E-3</v>
       </c>
       <c r="Z116">
@@ -8779,61 +9314,61 @@
         <v>10</v>
       </c>
       <c r="G117" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.806251589976001</v>
       </c>
       <c r="H117" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8854523900319999</v>
       </c>
       <c r="J117" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.3680215660655795</v>
       </c>
       <c r="K117" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.9318256897015327</v>
       </c>
       <c r="L117" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.10277903126071</v>
       </c>
       <c r="M117" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.6202155041458419</v>
       </c>
       <c r="O117">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.8714830052205205</v>
       </c>
       <c r="P117">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.9137761850923347</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.4216796543097301</v>
       </c>
       <c r="R117">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>54.461219205249414</v>
       </c>
       <c r="S117">
         <v>0.3</v>
       </c>
       <c r="U117">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>21.667151366208401</v>
       </c>
       <c r="V117">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>16.667039512468001</v>
       </c>
       <c r="W117">
         <v>16.673176000000002</v>
       </c>
       <c r="X117" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-6.1364875320002454E-3</v>
       </c>
       <c r="Z117">
@@ -8878,61 +9413,61 @@
         <v>11</v>
       </c>
       <c r="G118" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.5053061899760003</v>
       </c>
       <c r="H118" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8511833800319999</v>
       </c>
       <c r="J118" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.794983087393514</v>
       </c>
       <c r="K118" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.2065166014144779</v>
       </c>
       <c r="L118" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.3640392672051496</v>
       </c>
       <c r="M118" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.9137194718007069</v>
       </c>
       <c r="O118">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.2219642840287515</v>
       </c>
       <c r="P118">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.0344738130249373</v>
       </c>
       <c r="Q118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>11.31676019129816</v>
       </c>
       <c r="R118">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>65.387932780735028</v>
       </c>
       <c r="S118">
         <v>0.3</v>
       </c>
       <c r="U118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>27.937367597453235</v>
       </c>
       <c r="V118">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>21.490282767271719</v>
       </c>
       <c r="W118">
         <v>21.497907999999999</v>
       </c>
       <c r="X118" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-7.6252327282801957E-3</v>
       </c>
       <c r="Z118">
@@ -8977,61 +9512,61 @@
         <v>12</v>
       </c>
       <c r="G119" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.6439435499760009</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.2709273500319997</v>
       </c>
       <c r="J119" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.8021159422567901</v>
       </c>
       <c r="K119" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.4035799196955518</v>
       </c>
       <c r="L119" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.5944220815926098</v>
       </c>
       <c r="M119" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.0542231356458789</v>
       </c>
       <c r="O119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.2476218693360783</v>
       </c>
       <c r="P119">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.4307763500592277</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.7310259374553301</v>
       </c>
       <c r="R119">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>80.026923706813449</v>
       </c>
       <c r="S119">
         <v>0.3</v>
       </c>
       <c r="U119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>31.991813055690827</v>
       </c>
       <c r="V119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>24.609086965916021</v>
       </c>
       <c r="W119">
         <v>24.617563000000001</v>
       </c>
       <c r="X119" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-8.4760340839800108E-3</v>
       </c>
       <c r="Z119">
@@ -9076,61 +9611,61 @@
         <v>0</v>
       </c>
       <c r="G120" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H120" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J120" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K120" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L120" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M120" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R120">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S120">
         <v>0</v>
       </c>
       <c r="U120">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V120">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W120">
         <v>0</v>
       </c>
       <c r="X120" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -9151,61 +9686,61 @@
         <v>0</v>
       </c>
       <c r="G121" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H121" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J121" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K121" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L121" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M121" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S121">
         <v>0</v>
       </c>
       <c r="U121">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V121">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W121">
         <v>0</v>
       </c>
       <c r="X121" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -9226,61 +9761,61 @@
         <v>0</v>
       </c>
       <c r="G122" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H122" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J122" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K122" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L122" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M122" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O122">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P122">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R122">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S122">
         <v>0</v>
       </c>
       <c r="U122">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V122">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W122">
         <v>0</v>
       </c>
       <c r="X122" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -9301,61 +9836,61 @@
         <v>0</v>
       </c>
       <c r="G123" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H123" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J123" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K123" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L123" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M123" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P123">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R123">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S123">
         <v>0</v>
       </c>
       <c r="U123">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V123">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W123">
         <v>0</v>
       </c>
       <c r="X123" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -9376,61 +9911,61 @@
         <v>0</v>
       </c>
       <c r="G124" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H124" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J124" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K124" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L124" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M124" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O124">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P124">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R124">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S124">
         <v>0</v>
       </c>
       <c r="U124">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V124">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W124">
         <v>0</v>
       </c>
       <c r="X124" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -9451,61 +9986,61 @@
         <v>0</v>
       </c>
       <c r="G125" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H125" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J125" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K125" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L125" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M125" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O125">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P125">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q125">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R125">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S125">
         <v>0</v>
       </c>
       <c r="U125">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V125">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W125">
         <v>0</v>
       </c>
       <c r="X125" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -9526,61 +10061,61 @@
         <v>0</v>
       </c>
       <c r="G126" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H126" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J126" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K126" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L126" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M126" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O126">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R126">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S126">
         <v>0</v>
       </c>
       <c r="U126">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V126">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W126">
         <v>0</v>
       </c>
       <c r="X126" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -9601,61 +10136,61 @@
         <v>0</v>
       </c>
       <c r="G127" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H127" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J127" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K127" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L127" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M127" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q127">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R127">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S127">
         <v>0</v>
       </c>
       <c r="U127">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V127">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W127">
         <v>0</v>
       </c>
       <c r="X127" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -9676,61 +10211,61 @@
         <v>0</v>
       </c>
       <c r="G128" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H128" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J128" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K128" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L128" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M128" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O128">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P128">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q128">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R128">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S128">
         <v>0</v>
       </c>
       <c r="U128">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V128">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W128">
         <v>0</v>
       </c>
       <c r="X128" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -9751,61 +10286,61 @@
         <v>0</v>
       </c>
       <c r="G129" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H129" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J129" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K129" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L129" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M129" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O129">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P129">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q129">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R129">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S129">
         <v>0</v>
       </c>
       <c r="U129">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V129">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W129">
         <v>0</v>
       </c>
       <c r="X129" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -9826,61 +10361,61 @@
         <v>0</v>
       </c>
       <c r="G130" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H130" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J130" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K130" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L130" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M130" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O130">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P130">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q130">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R130">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S130">
         <v>0</v>
       </c>
       <c r="U130">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W130">
         <v>0</v>
       </c>
       <c r="X130" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -9901,61 +10436,61 @@
         <v>0</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H131" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J131" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K131" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L131" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M131" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O131">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P131">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q131">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R131">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S131">
         <v>0</v>
       </c>
       <c r="U131">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V131">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W131">
         <v>0</v>
       </c>
       <c r="X131" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -9976,61 +10511,61 @@
         <v>0</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H132" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J132" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K132" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L132" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M132" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O132">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P132">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q132">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S132">
         <v>0</v>
       </c>
       <c r="U132">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V132">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W132">
         <v>0</v>
       </c>
       <c r="X132" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -10051,61 +10586,61 @@
         <v>0</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J133" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K133" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L133" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M133" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O133">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P133">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R133">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S133">
         <v>0</v>
       </c>
       <c r="U133">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V133">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W133">
         <v>0</v>
       </c>
       <c r="X133" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -10126,61 +10661,61 @@
         <v>0</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J134" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K134" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L134" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M134" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O134">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P134">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R134">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S134">
         <v>0</v>
       </c>
       <c r="U134">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V134">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W134">
         <v>0</v>
       </c>
       <c r="X134" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -10201,61 +10736,61 @@
         <v>0</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J135" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K135" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L135" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M135" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O135">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P135">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R135">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S135">
         <v>0</v>
       </c>
       <c r="U135">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V135">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W135">
         <v>0</v>
       </c>
       <c r="X135" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -10276,61 +10811,61 @@
         <v>7</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.120456144976</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.746284431032</v>
       </c>
       <c r="J136" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.5605065720428744</v>
       </c>
       <c r="K136" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.8609654359866832</v>
       </c>
       <c r="L136" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.9612351100355532</v>
       </c>
       <c r="M136" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.6766873400967512</v>
       </c>
       <c r="O136">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.588876818163278</v>
       </c>
       <c r="P136">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.5952096359437644</v>
       </c>
       <c r="Q136">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.1352080468006154</v>
       </c>
       <c r="R136">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>28.337657675086202</v>
       </c>
       <c r="S136">
         <v>0.09</v>
       </c>
       <c r="U136">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.4440194679583271</v>
       </c>
       <c r="V136">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.6642380439984645</v>
       </c>
       <c r="W136">
         <v>8.6671530000000008</v>
       </c>
       <c r="X136" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.9149560015362397E-3</v>
       </c>
     </row>
@@ -10351,61 +10886,61 @@
         <v>8</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.5393021249759999</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.9390219110319999</v>
       </c>
       <c r="J137" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.7775537601384792</v>
       </c>
       <c r="K137" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.0968425509836925</v>
       </c>
       <c r="L137" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.2070566352015026</v>
       </c>
       <c r="M137" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.8936911558467695</v>
       </c>
       <c r="O137">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.1831651140993582</v>
       </c>
       <c r="P137">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.4108274081239531</v>
       </c>
       <c r="Q137">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.914042355785476</v>
       </c>
       <c r="R137">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37.287007700183956</v>
       </c>
       <c r="S137">
         <v>0.09</v>
       </c>
       <c r="U137">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12.479149102557523</v>
       </c>
       <c r="V137">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>11.448760644548186</v>
       </c>
       <c r="W137">
         <v>11.452462000000001</v>
       </c>
       <c r="X137" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-3.7013554518150471E-3</v>
       </c>
     </row>
@@ -10426,61 +10961,61 @@
         <v>0</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J138" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K138" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L138" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M138" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O138">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P138">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q138">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R138">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S138">
         <v>0</v>
       </c>
       <c r="U138">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V138">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W138">
         <v>0</v>
       </c>
       <c r="X138" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -10501,61 +11036,61 @@
         <v>0</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J139" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K139" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L139" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M139" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O139">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P139">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q139">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R139">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S139">
         <v>0</v>
       </c>
       <c r="U139">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V139">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W139">
         <v>0</v>
       </c>
       <c r="X139" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -10576,61 +11111,61 @@
         <v>7</v>
       </c>
       <c r="G140" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.120456144976</v>
       </c>
       <c r="H140" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.746284431032</v>
       </c>
       <c r="J140" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.5605065720428744</v>
       </c>
       <c r="K140" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.8609654359866832</v>
       </c>
       <c r="L140" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.9612351100355532</v>
       </c>
       <c r="M140" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.6766873400967512</v>
       </c>
       <c r="O140">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.588876818163278</v>
       </c>
       <c r="P140">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.5952096359437644</v>
       </c>
       <c r="Q140">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.1352080468006154</v>
       </c>
       <c r="R140">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>28.337657675086202</v>
       </c>
       <c r="S140">
         <v>0.09</v>
       </c>
       <c r="U140">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.4440194679583271</v>
       </c>
       <c r="V140">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.6642380439984645</v>
       </c>
       <c r="W140">
         <v>8.6671530000000008</v>
       </c>
       <c r="X140" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.9149560015362397E-3</v>
       </c>
     </row>
@@ -10651,61 +11186,61 @@
         <v>6</v>
       </c>
       <c r="G141" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.701610164976</v>
       </c>
       <c r="H141" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.5535469510319999</v>
       </c>
       <c r="J141" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.343459383947269</v>
       </c>
       <c r="K141" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6250883209896736</v>
       </c>
       <c r="L141" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.715413584869603</v>
       </c>
       <c r="M141" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.4596835243467328</v>
       </c>
       <c r="O141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0888074859476142</v>
       </c>
       <c r="P141">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.8908678905221996</v>
       </c>
       <c r="Q141">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.4772301822855798</v>
       </c>
       <c r="R141">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20.614473699088503</v>
       </c>
       <c r="S141">
         <v>0.09</v>
       </c>
       <c r="U141">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.8319508477624629</v>
       </c>
       <c r="V141">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.2678448144609744</v>
       </c>
       <c r="W141">
         <v>6.2700662999999999</v>
       </c>
       <c r="X141" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.2214855390254584E-3</v>
       </c>
     </row>
@@ -10726,61 +11261,61 @@
         <v>0</v>
       </c>
       <c r="G142" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H142" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J142" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K142" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L142" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M142" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O142">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P142">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q142">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R142">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S142">
         <v>0</v>
       </c>
       <c r="U142">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V142">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W142">
         <v>0</v>
       </c>
       <c r="X142" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -10801,61 +11336,61 @@
         <v>0</v>
       </c>
       <c r="G143" s="2">
-        <f t="shared" ref="G143:G159" si="26">G$12+SUMPRODUCT(B143:E143,$G$2:$J$2)</f>
+        <f t="shared" ref="G143:G159" si="27">G$12+SUMPRODUCT(B143:E143,$G$2:$J$2)</f>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H143" s="2">
-        <f t="shared" ref="H143:H159" si="27">H$12+SUMPRODUCT(B143:E143,$G$3:$J$3)</f>
+        <f t="shared" ref="H143:H159" si="28">H$12+SUMPRODUCT(B143:E143,$G$3:$J$3)</f>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J143" s="2">
-        <f t="shared" ref="J143:J159" si="28">J$12+SUMPRODUCT(G143:H143,$J$7:$K$7)</f>
+        <f t="shared" ref="J143:J159" si="29">J$12+SUMPRODUCT(G143:H143,$J$7:$K$7)</f>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K143" s="2">
-        <f t="shared" ref="K143:K159" si="29">K$12+SUMPRODUCT(G143:H143,$J$8:$K$8)</f>
+        <f t="shared" ref="K143:K159" si="30">K$12+SUMPRODUCT(G143:H143,$J$8:$K$8)</f>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L143" s="2">
-        <f t="shared" ref="L143:L159" si="30">L$12+SUMPRODUCT(G143:H143,$J$9:$K$9)</f>
+        <f t="shared" ref="L143:L159" si="31">L$12+SUMPRODUCT(G143:H143,$J$9:$K$9)</f>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M143" s="2">
-        <f t="shared" ref="M143:M159" si="31">M$12+SUMPRODUCT(G143:H143,$J$10:$K$10)</f>
+        <f t="shared" ref="M143:M159" si="32">M$12+SUMPRODUCT(G143:H143,$J$10:$K$10)</f>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O143">
-        <f t="shared" ref="O143:O159" si="32">(B143-J143)^2</f>
+        <f t="shared" ref="O143:O159" si="33">(B143-J143)^2</f>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P143">
-        <f t="shared" ref="P143:P159" si="33">(C143-K143)^2</f>
+        <f t="shared" ref="P143:P159" si="34">(C143-K143)^2</f>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q143">
-        <f t="shared" ref="Q143:Q159" si="34">(D143-L143)^2</f>
+        <f t="shared" ref="Q143:Q159" si="35">(D143-L143)^2</f>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R143">
-        <f t="shared" ref="R143:R159" si="35">(E143-M143)^2</f>
+        <f t="shared" ref="R143:R159" si="36">(E143-M143)^2</f>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S143">
         <v>0</v>
       </c>
       <c r="U143">
-        <f t="shared" ref="U143:U159" si="36">AVERAGE(O143:R143)*(1+S143)</f>
+        <f t="shared" ref="U143:U159" si="37">AVERAGE(O143:R143)*(1+S143)</f>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V143">
-        <f t="shared" ref="V143:V159" si="37">AVERAGE(O143:R143)</f>
+        <f t="shared" ref="V143:V159" si="38">AVERAGE(O143:R143)</f>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W143">
         <v>0</v>
       </c>
       <c r="X143" s="5">
-        <f t="shared" ref="X143:X159" si="38">V143-W143</f>
+        <f t="shared" ref="X143:X159" si="39">V143-W143</f>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -10876,61 +11411,61 @@
         <v>0</v>
       </c>
       <c r="G144" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H144" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J144" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K144" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L144" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M144" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O144">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q144">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S144">
         <v>0</v>
       </c>
       <c r="U144">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V144">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W144">
         <v>0</v>
       </c>
       <c r="X144" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -10951,61 +11486,61 @@
         <v>0</v>
       </c>
       <c r="G145" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H145" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J145" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K145" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L145" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M145" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O145">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P145">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q145">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R145">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S145">
         <v>0</v>
       </c>
       <c r="U145">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V145">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W145">
         <v>0</v>
       </c>
       <c r="X145" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -11026,61 +11561,61 @@
         <v>0</v>
       </c>
       <c r="G146" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H146" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J146" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K146" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L146" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M146" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O146">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P146">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q146">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R146">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S146">
         <v>0</v>
       </c>
       <c r="U146">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V146">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W146">
         <v>0</v>
       </c>
       <c r="X146" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -11101,61 +11636,61 @@
         <v>0</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J147" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K147" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L147" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M147" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O147">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P147">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q147">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R147">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S147">
         <v>0</v>
       </c>
       <c r="U147">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V147">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W147">
         <v>0</v>
       </c>
       <c r="X147" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -11176,61 +11711,61 @@
         <v>0</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J148" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K148" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L148" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M148" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O148">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P148">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q148">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R148">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S148">
         <v>0</v>
       </c>
       <c r="U148">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V148">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W148">
         <v>0</v>
       </c>
       <c r="X148" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -11251,61 +11786,61 @@
         <v>0</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J149" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K149" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L149" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M149" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O149">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P149">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q149">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R149">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S149">
         <v>0</v>
       </c>
       <c r="U149">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V149">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W149">
         <v>0</v>
       </c>
       <c r="X149" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -11326,61 +11861,61 @@
         <v>0</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J150" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K150" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L150" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M150" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O150">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P150">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q150">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R150">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S150">
         <v>0</v>
       </c>
       <c r="U150">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V150">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W150">
         <v>0</v>
       </c>
       <c r="X150" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -11401,61 +11936,61 @@
         <v>0</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J151" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K151" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L151" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M151" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O151">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P151">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q151">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R151">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S151">
         <v>0</v>
       </c>
       <c r="U151">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V151">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W151">
         <v>0</v>
       </c>
       <c r="X151" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -11476,61 +12011,61 @@
         <v>0</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J152" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K152" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L152" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M152" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O152">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P152">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q152">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R152">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S152">
         <v>0</v>
       </c>
       <c r="U152">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V152">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W152">
         <v>0</v>
       </c>
       <c r="X152" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -11551,61 +12086,61 @@
         <v>0</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J153" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K153" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L153" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M153" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O153">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P153">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q153">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R153">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S153">
         <v>0</v>
       </c>
       <c r="U153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V153">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W153">
         <v>0</v>
       </c>
       <c r="X153" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -11626,61 +12161,61 @@
         <v>0</v>
       </c>
       <c r="G154" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H154" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J154" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K154" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L154" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M154" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O154">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P154">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q154">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R154">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S154">
         <v>0</v>
       </c>
       <c r="U154">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V154">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W154">
         <v>0</v>
       </c>
       <c r="X154" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -11701,61 +12236,61 @@
         <v>0</v>
       </c>
       <c r="G155" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H155" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J155" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K155" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L155" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M155" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O155">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P155">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q155">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R155">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S155">
         <v>0</v>
       </c>
       <c r="U155">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V155">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W155">
         <v>0</v>
       </c>
       <c r="X155" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -11776,61 +12311,61 @@
         <v>0</v>
       </c>
       <c r="G156" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H156" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J156" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K156" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L156" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M156" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O156">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P156">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q156">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R156">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S156">
         <v>0</v>
       </c>
       <c r="U156">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V156">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W156">
         <v>0</v>
       </c>
       <c r="X156" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -11851,61 +12386,61 @@
         <v>0</v>
       </c>
       <c r="G157" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H157" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J157" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K157" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L157" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M157" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O157">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P157">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q157">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R157">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S157">
         <v>0</v>
       </c>
       <c r="U157">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V157">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W157">
         <v>0</v>
       </c>
       <c r="X157" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -11926,61 +12461,61 @@
         <v>0</v>
       </c>
       <c r="G158" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H158" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J158" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K158" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L158" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M158" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O158">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P158">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q158">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R158">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S158">
         <v>0</v>
       </c>
       <c r="U158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V158">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W158">
         <v>0</v>
       </c>
       <c r="X158" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.7008738977718492E-9</v>
       </c>
     </row>
@@ -12001,61 +12536,61 @@
         <v>0</v>
       </c>
       <c r="G159" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.9999976000000006E-5</v>
       </c>
       <c r="H159" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.9999967999999997E-5</v>
       </c>
       <c r="J159" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1634769262016327E-5</v>
       </c>
       <c r="K159" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-9.2495202126866081E-5</v>
       </c>
       <c r="L159" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.0243894606548401E-4</v>
       </c>
       <c r="M159" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2363790787040096E-4</v>
       </c>
       <c r="O159">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.6806324102068648E-10</v>
       </c>
       <c r="P159">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.5553624164898117E-9</v>
       </c>
       <c r="Q159">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0493737671007141E-8</v>
       </c>
       <c r="R159">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.5286332262569757E-8</v>
       </c>
       <c r="S159">
         <v>0</v>
       </c>
       <c r="U159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="V159">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="W159">
         <v>0</v>
       </c>
       <c r="X159" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.7008738977718492E-9</v>
       </c>
       <c r="Y159" s="5">
@@ -12069,15 +12604,15 @@
         <v>2157.2975659492145</v>
       </c>
       <c r="V161">
-        <f t="shared" ref="V161:X161" si="39">SUM(V14:V159)</f>
+        <f t="shared" ref="V161:X161" si="40">SUM(V14:V159)</f>
         <v>1184.5213619052333</v>
       </c>
       <c r="W161">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1184.9432149000008</v>
       </c>
       <c r="X161">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-0.42185299476990101</v>
       </c>
       <c r="AE161" s="3"/>
@@ -15013,10 +15548,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A984BD9F-CB1F-FC40-A35B-ECB5851CD447}">
-  <dimension ref="C5:E8"/>
+  <dimension ref="A5:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A16" sqref="A16:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15056,6 +15591,2170 @@
         <v>38</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE094504-842E-0745-BC7E-594AA269C494}">
+  <dimension ref="A1:F149"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.75</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0.75</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.75</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0.75</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.75</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0.75</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0.75</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0.75</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.75</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.75</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0.5</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0.5</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0.5</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0.75</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0.75</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0.75</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0.5</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0.75</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0.5</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0.75</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>0.75</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0.5</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0.5</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>0.75</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0.5</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>0.75</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0.75</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0.5</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>0.75</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>0.5</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0.75</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>0.75</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0.5</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>0.5</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0.5</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>0.75</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>0.5</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>0.75</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0.3</v>
+      </c>
+      <c r="B53">
+        <v>0.25</v>
+      </c>
+      <c r="C53">
+        <v>0.5</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0.3</v>
+      </c>
+      <c r="B54">
+        <v>0.75</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>0.3</v>
+      </c>
+      <c r="B65">
+        <v>0.25</v>
+      </c>
+      <c r="C65">
+        <v>0.5</v>
+      </c>
+      <c r="D65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>0.3</v>
+      </c>
+      <c r="B66">
+        <v>0.25</v>
+      </c>
+      <c r="C66">
+        <v>0.5</v>
+      </c>
+      <c r="D66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>0.3</v>
+      </c>
+      <c r="B77">
+        <v>0.25</v>
+      </c>
+      <c r="C77">
+        <v>0.5</v>
+      </c>
+      <c r="D77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>0.3</v>
+      </c>
+      <c r="B78">
+        <v>0.25</v>
+      </c>
+      <c r="C78">
+        <v>0.5</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>0.3</v>
+      </c>
+      <c r="B79">
+        <v>0.25</v>
+      </c>
+      <c r="C79">
+        <v>0.5</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>0.3</v>
+      </c>
+      <c r="B89">
+        <v>0.25</v>
+      </c>
+      <c r="C89">
+        <v>0.5</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>0.3</v>
+      </c>
+      <c r="B102">
+        <v>0.75</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>0.5</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>0.75</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>0.5</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>0.3</v>
+      </c>
+      <c r="B114">
+        <v>0.75</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>0.5</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>0.75</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>0.5</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>0.3</v>
+      </c>
+      <c r="B126">
+        <v>0.25</v>
+      </c>
+      <c r="C126">
+        <v>0.5</v>
+      </c>
+      <c r="D126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>0.3</v>
+      </c>
+      <c r="B127">
+        <v>0.25</v>
+      </c>
+      <c r="C127">
+        <v>0.5</v>
+      </c>
+      <c r="D127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>0.3</v>
+      </c>
+      <c r="B138">
+        <v>0.25</v>
+      </c>
+      <c r="C138">
+        <v>0.5</v>
+      </c>
+      <c r="D138">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>0.3</v>
+      </c>
+      <c r="B139">
+        <v>0.25</v>
+      </c>
+      <c r="C139">
+        <v>0.5</v>
+      </c>
+      <c r="D139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
